--- a/data/trans_camb/POLIPATOLOGIA_5-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 4,91</t>
+          <t>-1,2; 5,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 5,28</t>
+          <t>-0,77; 5,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,16</t>
+          <t>-2,83; 2,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,23</t>
+          <t>-1,88; 7,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 12,44</t>
+          <t>2,26; 12,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,64</t>
+          <t>-4,08; 3,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,23</t>
+          <t>-0,14; 5,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,03</t>
+          <t>2,0; 8,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,96</t>
+          <t>-2,43; 1,74</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 364,71</t>
+          <t>-45,9; 331,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 355,91</t>
+          <t>-24,31; 407,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 150,78</t>
+          <t>-68,7; 178,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 195,89</t>
+          <t>-24,57; 188,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 288,47</t>
+          <t>14,94; 289,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 71,2</t>
+          <t>-46,9; 98,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 181,29</t>
+          <t>-2,93; 154,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,78; 276,24</t>
+          <t>30,38; 238,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-42,3; 61,12</t>
+          <t>-40,46; 55,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,76</t>
+          <t>-0,62; 4,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,19</t>
+          <t>-3,69; 0,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,47</t>
+          <t>-0,04; 5,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,14</t>
+          <t>-6,02; 1,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -1,86</t>
+          <t>-8,65; -1,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,74</t>
+          <t>-1,58; 5,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,42</t>
+          <t>-2,38; 2,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -1,57</t>
+          <t>-5,78; -1,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 4,61</t>
+          <t>0,07; 4,79</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 222,77</t>
+          <t>-21,27; 252,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,08; 16,4</t>
+          <t>-82,95; 20,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 255,25</t>
+          <t>-3,77; 268,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,67; 26,93</t>
+          <t>-45,0; 17,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,09; -20,14</t>
+          <t>-66,21; -19,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 57,53</t>
+          <t>-12,08; 60,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 41,21</t>
+          <t>-28,53; 37,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,83; -25,38</t>
+          <t>-65,86; -22,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 78,52</t>
+          <t>0,79; 78,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,3</t>
+          <t>-0,49; 4,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,98</t>
+          <t>-1,29; 1,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 14,73</t>
+          <t>7,65; 14,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,71</t>
+          <t>2,65; 9,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,27</t>
+          <t>0,56; 7,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,31; 18,36</t>
+          <t>11,35; 18,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,01</t>
+          <t>1,77; 6,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,42</t>
+          <t>0,3; 4,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,52</t>
+          <t>10,81; 15,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 1034,73</t>
+          <t>-47,18; 850,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,66; 412,93</t>
+          <t>-75,24; 495,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308,32; 4288,7</t>
+          <t>310,95; 3978,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,65; 783,82</t>
+          <t>57,74; 720,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 495,62</t>
+          <t>7,76; 566,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>270,92; 1554,25</t>
+          <t>284,33; 1389,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,81; 576,32</t>
+          <t>65,35; 583,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 370,83</t>
+          <t>6,09; 373,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>348,06; 1470,52</t>
+          <t>392,75; 1603,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,44</t>
+          <t>-1,15; 4,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,5</t>
+          <t>-0,31; 5,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,29</t>
+          <t>4,37; 12,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 14,04</t>
+          <t>6,29; 14,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,66</t>
+          <t>5,32; 13,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 12,77</t>
+          <t>3,53; 13,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,28</t>
+          <t>3,15; 8,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,68</t>
+          <t>3,36; 8,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,68</t>
+          <t>5,04; 11,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 353,52</t>
+          <t>-37,65; 290,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 409,18</t>
+          <t>-16,91; 385,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>105,58; 854,41</t>
+          <t>94,72; 828,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>94,0; 514,52</t>
+          <t>107,01; 530,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>89,39; 534,8</t>
+          <t>90,78; 516,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,39; 398,98</t>
+          <t>63,85; 448,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>70,25; 329,15</t>
+          <t>69,67; 318,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,28; 348,02</t>
+          <t>68,56; 315,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>124,79; 467,39</t>
+          <t>117,25; 468,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,16; 11,01</t>
+          <t>2,34; 11,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,07</t>
+          <t>-1,08; 6,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,37</t>
+          <t>3,92; 11,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,81; 18,11</t>
+          <t>6,47; 18,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 11,02</t>
+          <t>-0,06; 10,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 15,04</t>
+          <t>1,85; 15,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,74; 12,81</t>
+          <t>5,34; 13,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,91</t>
+          <t>0,8; 7,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,55</t>
+          <t>4,21; 12,45</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,33; 1168,25</t>
+          <t>35,82; 1037,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 689,84</t>
+          <t>-46,2; 615,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>70,22; 1133,97</t>
+          <t>72,96; 1263,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>80,29; 648,44</t>
+          <t>63,0; 653,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 396,47</t>
+          <t>-6,12; 382,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,45; 520,86</t>
+          <t>28,65; 519,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>108,19; 549,13</t>
+          <t>94,16; 558,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,64; 277,77</t>
+          <t>10,73; 309,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>92,33; 536,45</t>
+          <t>86,0; 556,2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,95</t>
+          <t>2,64; 7,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,48</t>
+          <t>1,89; 6,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,44; 20,56</t>
+          <t>13,65; 20,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,17</t>
+          <t>-1,51; 6,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,28</t>
+          <t>-1,66; 6,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,66; 28,09</t>
+          <t>18,56; 27,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,49</t>
+          <t>1,25; 6,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,32</t>
+          <t>0,5; 5,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,07; 23,19</t>
+          <t>17,11; 22,94</t>
         </is>
       </c>
     </row>
@@ -1886,39 +1886,39 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 254,05</t>
+          <t>-28,78; 238,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 220,39</t>
+          <t>-35,1; 269,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>261,26; 1111,72</t>
+          <t>265,77; 1122,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,27; 489,42</t>
+          <t>30,44; 461,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>14,54; 407,78</t>
+          <t>6,74; 374,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>467,34; 1839,47</t>
+          <t>474,56; 1876,04</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,92</t>
+          <t>-2,06; 1,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,23</t>
+          <t>-1,17; 2,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,95</t>
+          <t>3,62; 9,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,93</t>
+          <t>1,12; 7,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,87</t>
+          <t>1,77; 7,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,8; 64,75</t>
+          <t>16,08; 62,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,88</t>
+          <t>0,32; 4,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,91</t>
+          <t>1,27; 4,94</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11,03; 49,85</t>
+          <t>10,98; 52,27</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 89,2</t>
+          <t>-50,06; 82,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 150,57</t>
+          <t>-29,47; 124,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>84,79; 398,98</t>
+          <t>87,2; 393,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,19; 153,21</t>
+          <t>15,74; 161,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,95; 171,49</t>
+          <t>24,0; 178,48</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>243,8; 1411,62</t>
+          <t>257,51; 1691,69</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,65; 99,75</t>
+          <t>5,71; 111,76</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>24,04; 128,19</t>
+          <t>22,14; 131,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>229,35; 1259,43</t>
+          <t>227,5; 1293,62</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -3,16</t>
+          <t>-7,43; -3,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -1,32</t>
+          <t>-5,82; -1,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,49</t>
+          <t>-6,49; 0,62</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,17</t>
+          <t>-3,46; 2,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,18</t>
+          <t>-1,07; 5,27</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,61</t>
+          <t>1,52; 7,86</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -1,22</t>
+          <t>-4,62; -1,02</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,15</t>
+          <t>-2,54; 1,44</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,91</t>
+          <t>-2,94; 2,75</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-85,96; -52,19</t>
+          <t>-86,7; -53,91</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-70,48; -20,95</t>
+          <t>-68,99; -20,23</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-75,34; 7,42</t>
+          <t>-73,61; 8,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 28,87</t>
+          <t>-33,8; 35,61</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 68,92</t>
+          <t>-11,26; 74,02</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>11,84; 103,12</t>
+          <t>12,62; 104,52</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-52,02; -17,81</t>
+          <t>-51,49; -14,42</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 16,86</t>
+          <t>-28,72; 20,61</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 39,8</t>
+          <t>-34,38; 37,79</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,33</t>
+          <t>-0,61; 1,28</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,98</t>
+          <t>-0,74; 0,95</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,76</t>
+          <t>2,82; 5,77</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,54</t>
+          <t>1,81; 4,41</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,55</t>
+          <t>1,66; 4,49</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>8,92; 27,99</t>
+          <t>8,92; 29,05</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,59</t>
+          <t>0,93; 2,59</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,48</t>
+          <t>0,75; 2,41</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>6,53; 17,34</t>
+          <t>6,48; 18,45</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 45,07</t>
+          <t>-16,27; 44,02</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 31,12</t>
+          <t>-20,1; 30,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>73,12; 188,38</t>
+          <t>78,76; 191,5</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>24,72; 74,38</t>
+          <t>24,02; 71,98</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>22,99; 75,2</t>
+          <t>21,43; 73,04</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>127,98; 455,81</t>
+          <t>127,37; 449,22</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>17,67; 54,64</t>
+          <t>16,33; 54,18</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>14,82; 52,58</t>
+          <t>13,87; 51,36</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>124,74; 340,71</t>
+          <t>124,87; 367,06</t>
         </is>
       </c>
     </row>
